--- a/Universal_Driver_soft/UniversalDriverForStepper/Map Registers.xlsx
+++ b/Universal_Driver_soft/UniversalDriverForStepper/Map Registers.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C2CDEF6-5FEE-4616-8D77-78EE02C10FD5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E47AEDB-E3B0-4807-A23C-90BEAC980F52}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="51">
   <si>
     <t>Десятичная</t>
   </si>
@@ -155,13 +155,25 @@
     <t>ChangePos</t>
   </si>
   <si>
-    <t>Изменение позиции</t>
-  </si>
-  <si>
-    <t>SpeedDiv</t>
-  </si>
-  <si>
-    <t>делитель для максимальной скорости</t>
+    <t>Call</t>
+  </si>
+  <si>
+    <t>Калибровка по датчикам</t>
+  </si>
+  <si>
+    <t>Pos</t>
+  </si>
+  <si>
+    <t>Текущая позиция</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Изменение позиции(при чтении возврожает позицию) </t>
+  </si>
+  <si>
+    <t>W/R</t>
+  </si>
+  <si>
+    <t>W = 1/ R = 1-2</t>
   </si>
 </sst>
 </file>
@@ -937,7 +949,7 @@
   <dimension ref="A1:BI20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1106,14 +1118,14 @@
         <v>43</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E9" s="5">
-        <v>1</v>
+        <v>48</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>50</v>
       </c>
       <c r="F9" s="6"/>
       <c r="G9" s="16" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1124,14 +1136,16 @@
         <v>6</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E10" s="17"/>
       <c r="F10" s="17"/>
-      <c r="G10" s="14"/>
+      <c r="G10" s="14" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="22" t="s">
@@ -1140,11 +1154,19 @@
       <c r="B11" s="22">
         <v>7</v>
       </c>
-      <c r="C11" s="19"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
+      <c r="C11" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" s="9">
+        <v>1</v>
+      </c>
       <c r="F11" s="10"/>
-      <c r="G11" s="16"/>
+      <c r="G11" s="16" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="24" t="s">

--- a/Universal_Driver_soft/UniversalDriverForStepper/Map Registers.xlsx
+++ b/Universal_Driver_soft/UniversalDriverForStepper/Map Registers.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E47AEDB-E3B0-4807-A23C-90BEAC980F52}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{809A882F-6A94-40C9-8529-F0924E1C99D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="46">
   <si>
     <t>Десятичная</t>
   </si>
@@ -107,42 +107,15 @@
     <t>11520 (115200)</t>
   </si>
   <si>
-    <t>Dir</t>
-  </si>
-  <si>
-    <t>Stop/Start</t>
-  </si>
-  <si>
-    <t>Направление вращения</t>
-  </si>
-  <si>
-    <t>Запуск или останов вращения</t>
-  </si>
-  <si>
     <t>Чтение / Запись (R/W)</t>
   </si>
   <si>
     <t>W</t>
   </si>
   <si>
-    <t>Status start/stop</t>
-  </si>
-  <si>
     <t>R</t>
   </si>
   <si>
-    <t>состояние двигателя</t>
-  </si>
-  <si>
-    <t>Status Dir</t>
-  </si>
-  <si>
-    <t>0(CW) - 1(CCW)</t>
-  </si>
-  <si>
-    <t>0 - 1</t>
-  </si>
-  <si>
     <t>Speed</t>
   </si>
   <si>
@@ -174,6 +147,18 @@
   </si>
   <si>
     <t>W = 1/ R = 1-2</t>
+  </si>
+  <si>
+    <t>positionX</t>
+  </si>
+  <si>
+    <t>предположительная длинна хода в шагах двиготеля(используется при калибровке)</t>
+  </si>
+  <si>
+    <t>acell</t>
+  </si>
+  <si>
+    <t>ускорение (при разгоне и тормоении)</t>
   </si>
 </sst>
 </file>
@@ -490,7 +475,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -602,6 +587,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -949,7 +940,7 @@
   <dimension ref="A1:BI20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -993,7 +984,7 @@
         <v>17</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1003,21 +994,11 @@
       <c r="B4" s="21">
         <v>0</v>
       </c>
-      <c r="C4" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="F4" s="8">
-        <v>0</v>
-      </c>
-      <c r="G4" s="14" t="s">
-        <v>33</v>
-      </c>
+      <c r="C4" s="18"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="14"/>
     </row>
     <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="21" t="s">
@@ -1026,23 +1007,13 @@
       <c r="B5" s="22">
         <v>1</v>
       </c>
-      <c r="C5" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="F5" s="10">
-        <v>0</v>
-      </c>
-      <c r="G5" s="15" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C5" s="19"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="15"/>
+    </row>
+    <row r="6" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="22" t="s">
         <v>7</v>
       </c>
@@ -1050,18 +1021,14 @@
         <v>2</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>39</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="D6" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="7"/>
       <c r="F6" s="8"/>
-      <c r="G6" s="14" t="s">
-        <v>35</v>
-      </c>
+      <c r="G6" s="14"/>
     </row>
     <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="22" t="s">
@@ -1071,17 +1038,15 @@
         <v>3</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>38</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="D7" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="5"/>
       <c r="F7" s="10"/>
       <c r="G7" s="15" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1092,19 +1057,19 @@
         <v>4</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="F8" s="17">
         <v>1</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1115,17 +1080,17 @@
         <v>5</v>
       </c>
       <c r="C9" s="34" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F9" s="6"/>
       <c r="G9" s="16" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1136,15 +1101,15 @@
         <v>6</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="E10" s="17"/>
       <c r="F10" s="17"/>
       <c r="G10" s="14" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1155,17 +1120,17 @@
         <v>7</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="E11" s="9">
         <v>1</v>
       </c>
       <c r="F11" s="10"/>
       <c r="G11" s="16" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1201,7 +1166,7 @@
         <v>27</v>
       </c>
       <c r="G13" s="15" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1220,7 +1185,7 @@
         <v>19</v>
       </c>
       <c r="G14" s="14" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">

--- a/Universal_Driver_soft/UniversalDriverForStepper/Map Registers.xlsx
+++ b/Universal_Driver_soft/UniversalDriverForStepper/Map Registers.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{809A882F-6A94-40C9-8529-F0924E1C99D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5B322F8-C212-4891-AFEA-8E032FFE2902}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="47">
   <si>
     <t>Десятичная</t>
   </si>
@@ -159,6 +159,9 @@
   </si>
   <si>
     <t>ускорение (при разгоне и тормоении)</t>
+  </si>
+  <si>
+    <t>r/w</t>
   </si>
 </sst>
 </file>
@@ -585,14 +588,14 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -940,7 +943,7 @@
   <dimension ref="A1:BI20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -957,12 +960,12 @@
   <sheetData>
     <row r="1" spans="1:7" ht="21.6" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:7" ht="61.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="39"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
+      <c r="A2" s="41"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
     </row>
     <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
@@ -1008,7 +1011,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="19"/>
-      <c r="D5" s="41"/>
+      <c r="D5" s="39"/>
       <c r="E5" s="11"/>
       <c r="F5" s="10"/>
       <c r="G5" s="15"/>
@@ -1023,12 +1026,16 @@
       <c r="C6" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="42" t="s">
+      <c r="D6" s="40" t="s">
         <v>43</v>
       </c>
       <c r="E6" s="7"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="14"/>
+      <c r="F6" s="8">
+        <v>350</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="22" t="s">
@@ -1040,7 +1047,7 @@
       <c r="C7" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="41" t="s">
+      <c r="D7" s="39" t="s">
         <v>45</v>
       </c>
       <c r="E7" s="5"/>

--- a/Universal_Driver_soft/UniversalDriverForStepper/Map Registers.xlsx
+++ b/Universal_Driver_soft/UniversalDriverForStepper/Map Registers.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5B322F8-C212-4891-AFEA-8E032FFE2902}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72D19128-42AB-41F6-BF32-5CB6F589CE48}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -152,9 +152,6 @@
     <t>positionX</t>
   </si>
   <si>
-    <t>предположительная длинна хода в шагах двиготеля(используется при калибровке)</t>
-  </si>
-  <si>
     <t>acell</t>
   </si>
   <si>
@@ -162,6 +159,9 @@
   </si>
   <si>
     <t>r/w</t>
+  </si>
+  <si>
+    <t>предположительная длинна хода в шагах двигателя(используется при калибровке)</t>
   </si>
 </sst>
 </file>
@@ -943,23 +943,23 @@
   <dimension ref="A1:BI20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="45.33203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.33203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="22.33203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="25.5546875" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="12.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="45.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="22.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="25.5703125" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="21.6" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:7" ht="61.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="21.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:7" ht="61.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="41"/>
       <c r="B2" s="42"/>
       <c r="C2" s="42"/>
@@ -967,7 +967,7 @@
       <c r="E2" s="42"/>
       <c r="F2" s="42"/>
     </row>
-    <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
@@ -990,7 +990,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="21" t="s">
         <v>5</v>
       </c>
@@ -1003,7 +1003,7 @@
       <c r="F4" s="8"/>
       <c r="G4" s="14"/>
     </row>
-    <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="21" t="s">
         <v>6</v>
       </c>
@@ -1016,7 +1016,7 @@
       <c r="F5" s="10"/>
       <c r="G5" s="15"/>
     </row>
-    <row r="6" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="22" t="s">
         <v>7</v>
       </c>
@@ -1027,17 +1027,17 @@
         <v>42</v>
       </c>
       <c r="D6" s="40" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="8">
         <v>350</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="22" t="s">
         <v>8</v>
       </c>
@@ -1045,10 +1045,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="39" t="s">
         <v>44</v>
-      </c>
-      <c r="D7" s="39" t="s">
-        <v>45</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="10"/>
@@ -1056,7 +1056,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="23" t="s">
         <v>9</v>
       </c>
@@ -1079,7 +1079,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="21" t="s">
         <v>10</v>
       </c>
@@ -1100,7 +1100,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="22" t="s">
         <v>11</v>
       </c>
@@ -1119,7 +1119,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="22" t="s">
         <v>12</v>
       </c>
@@ -1140,7 +1140,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="24" t="s">
         <v>13</v>
       </c>
@@ -1155,7 +1155,7 @@
       <c r="F12" s="37"/>
       <c r="G12" s="27"/>
     </row>
-    <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="29" t="s">
         <v>14</v>
       </c>
@@ -1176,7 +1176,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="29" t="s">
         <v>15</v>
       </c>
@@ -1195,7 +1195,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="29" t="s">
         <v>16</v>
       </c>
@@ -1208,7 +1208,7 @@
       <c r="F15" s="12"/>
       <c r="G15" s="15"/>
     </row>
-    <row r="16" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="29" t="s">
         <v>20</v>
       </c>
@@ -1221,7 +1221,7 @@
       <c r="F16" s="12"/>
       <c r="G16" s="14"/>
     </row>
-    <row r="17" spans="1:61" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:61" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="29" t="s">
         <v>19</v>
       </c>
@@ -1288,7 +1288,7 @@
       <c r="BH17" s="2"/>
       <c r="BI17" s="2"/>
     </row>
-    <row r="18" spans="1:61" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:61" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="30" t="s">
         <v>21</v>
       </c>
@@ -1301,7 +1301,7 @@
       <c r="F18" s="12"/>
       <c r="G18" s="14"/>
     </row>
-    <row r="19" spans="1:61" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:61" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="29" t="s">
         <v>22</v>
       </c>
@@ -1314,7 +1314,7 @@
       <c r="F19" s="12"/>
       <c r="G19" s="15"/>
     </row>
-    <row r="20" spans="1:61" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:61" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="29" t="s">
         <v>25</v>
       </c>
@@ -1346,7 +1346,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
@@ -1359,7 +1359,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
